--- a/data/locationData/Food_20_withscores.xlsx
+++ b/data/locationData/Food_20_withscores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://smu-my.sharepoint.com/personal/danieljames_2023_mitb_smu_edu_sg/Documents/SMU Singapore/Academics/Jan 2025/AI Planning and Decision Making/Project/Travel-Planner-Decision-Maker/data/locationData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonardow41/Dev/SMU/Travel-Planner-Decision-Maker/data/locationData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{A7F6CB15-127D-4486-8C46-0CF1AC9E8ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64CAE16C-60F7-4FF6-900C-4F650767DBAE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D9645D-DFAC-F441-AA1D-CF8B026D12E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{7E98C5FB-4178-465C-86F8-C7E69EC27D10}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{7E98C5FB-4178-465C-86F8-C7E69EC27D10}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="72">
   <si>
     <t>No.</t>
   </si>
@@ -243,30 +243,15 @@
     <t>Changi Village Hawker Centre</t>
   </si>
   <si>
-    <t>328 Katong Laksa</t>
-  </si>
-  <si>
-    <t>Orchard Yong Tau Foo</t>
-  </si>
-  <si>
     <t>Tangs Market</t>
   </si>
   <si>
     <t>Food Opera ION Orchard</t>
   </si>
   <si>
-    <t>Liao Fan Hawker Chan</t>
-  </si>
-  <si>
-    <t>Kok Kee Wonton Noodle (Foch Road)</t>
-  </si>
-  <si>
     <t>Teck Ghee Court Market &amp; Food Centre</t>
   </si>
   <si>
-    <t>Singapore Zam Zam Restaurant</t>
-  </si>
-  <si>
     <t>East Coast Lagoon Food Village is a nostalgic beachfront hawker haven that's best experienced in the evening with the sea breeze. It’s known for barbecue seafood and satay. Be sure to check out Haron Satay (#55) for juicy skewers and rich peanut sauce, and Lagoon Carrot Cake (#01-40), often praised for its crispy-edged black carrot cake. Han Jia Bak Kut Teh &amp; Pork Leg is another local favorite for herbal pork rib soup served with yam rice.</t>
   </si>
   <si>
@@ -276,31 +261,13 @@
     <t>Changi Village Hawker Centre draws foodies and weekenders for its renowned nasi lemak scene. Two iconic rivals, International Muslim Food Stall Nasi Lemak and Mizzy Corner Nasi Lemak, serve up fragrant coconut rice with crispy chicken wings and sambal. Other must-try stalls include Weng Kee Ipoh Hor Fun for silky flat noodles in savory gravy and Ho Guan Satay Bee Hoon, a nostalgic dish of rice vermicelli in thick peanut sauce.</t>
   </si>
   <si>
-    <t>328 Katong Laksa is a destination in itself, known for its rich, lemak (coconut-heavy) laksa with short noodles you eat only with a spoon. The star is the signature 328 Laksa, with shrimp, cockles, and fishcake slices in a creamy, spicy broth. With multiple branches, the East Coast Road outlet is the original and most iconic, where even Gordon Ramsay came for a laksa cook-off.</t>
-  </si>
-  <si>
-    <t>Orchard Yong Tau Foo is a crowd-favorite for healthier hawker meals in the Orchard area. It stands out for its variety of fresh, handmade items like bitter gourd, stuffed tofu, and meatballs, all bathed in a comforting soup. Located at Cuppage Plaza, it’s especially popular during lunch hours among office workers and shoppers, and many swear by the dry version with chili and sweet sauce.</t>
-  </si>
-  <si>
-    <t>Kok Kee Wonton Noodle (Foch Road) is a heritage brand revived with the same flavors fans grew up loving. The key to its cult following is the springy egg noodles drenched in their iconic secret sauce. Besides their wanton mee, the Char Siew Mee is worth a try for its sweet, tender barbecued pork. Their old-school charm and consistency keep lines forming early.</t>
-  </si>
-  <si>
     <t>Tangs Market, located in the basement of TANGS Orchard, offers a boutique hawker-style experience for city shoppers. It features a selection of reputable names like Punggol Nasi Lemak, known for its fragrant rice and crispy chicken wings, and Toa Payoh Hwa Heng Beef Noodles, which serves deeply flavorful Hainan-style beef noodles with a rich gravy or clear broth. Qi Ji also has a presence here for those craving popiah or nasi lemak.</t>
   </si>
   <si>
     <t>Food Opera at ION Orchard is a premium food court that curates top hawker brands under one roof. Notable stalls include Sergeant Hainanese Chicken Rice, serving tender poached chicken with garlicky chili and fragrant rice, and Li Xin Teochew Fishball Noodles, a stalwart for bouncy handmade fishballs. Geylang Lor 9 Fresh Frog Porridge also makes an appearance for those craving claypot delicacies.</t>
   </si>
   <si>
-    <t>Liao Fan Hawker Chan, located on Smith Street in Chinatown, shot to international fame after earning a Michelin star. Their signature Soy Sauce Chicken Rice features glazed, tender chicken with subtly sweet soy-based marinade served over rice or noodles. Beyond that, the Char Siew and Roast Pork options are equally noteworthy, and all at wallet-friendly prices that keep the queues long.</t>
-  </si>
-  <si>
-    <t>Tekka Centre in Little India is a bustling food complex known for massive portions and a cultural blend of Indian, Malay, and Chinese food. A few standout stalls include Allauddin’s Briyani, famous for its tender mutton and mountain of aromatic rice, and Heng Gi Goose and Duck Rice, an old-school favorite for braised meats. Temasek Indian Rojak is another local gem with crispy fritters and tangy sweet sauce.</t>
-  </si>
-  <si>
     <t>Teck Ghee Court Market &amp; Food Centre is a community favorite tucked away in Ang Mo Kio, offering reliable and hearty hawker fare. Notable stalls include Soon Heng Roasted Delights, loved for its char siew and roasted duck, and Lian Xiang Carrot Cake, known for both the black and white versions with wok hei and crisp edges. For dessert, the Ah Seah Traditional Popiah adds a nice sweet-and-savory finish.</t>
-  </si>
-  <si>
-    <t>Singapore Zam Zam Restaurant, across from Sultan Mosque, is an institution for Indian-Muslim cuisine. The star of the show is the Murtabak, particularly the mutton and chicken versions, which are stuffed with spiced meat and onions and served with a rich curry dip. Also worth trying is their Nasi Biryani with tender lamb shank or chicken, and their comforting Mee Goreng, all of which are served in a heritage-rich, no-frills setting.</t>
   </si>
 </sst>
 </file>
@@ -395,10 +362,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -698,23 +661,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DEAADF-7D2E-4725-9799-7AEAD70157A0}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="26.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.59765625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="33.1328125" customWidth="1"/>
-    <col min="4" max="4" width="95.3984375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="33.1640625" customWidth="1"/>
+    <col min="4" max="4" width="95.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -749,7 +712,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="165" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -784,7 +747,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="162.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" ht="162.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -819,18 +782,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>9</v>
@@ -839,10 +802,10 @@
         <v>10</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I4">
         <v>5</v>
@@ -851,21 +814,21 @@
         <v>5</v>
       </c>
       <c r="K4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="71.25" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="96" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2">
         <v>4.2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E5">
         <v>9</v>
@@ -889,203 +852,203 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="5">
+    <row r="6" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="2">
         <v>4.2</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6">
-        <v>9</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6">
+      <c r="D9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
         <v>8</v>
       </c>
-      <c r="H6">
-        <v>7</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6">
-        <v>10</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="6">
+      <c r="K9">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="2">
+    </row>
+    <row r="10" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7">
-        <v>9</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-      <c r="G7">
-        <v>7</v>
-      </c>
-      <c r="H7">
-        <v>7</v>
-      </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
-      <c r="J7">
-        <v>4</v>
-      </c>
-      <c r="K7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8">
-        <v>9</v>
-      </c>
-      <c r="F8">
-        <v>10</v>
-      </c>
-      <c r="G8">
-        <v>10</v>
-      </c>
-      <c r="H8">
-        <v>10</v>
-      </c>
-      <c r="I8">
-        <v>5</v>
-      </c>
-      <c r="J8">
-        <v>5</v>
-      </c>
-      <c r="K8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A9" s="6">
+      <c r="D11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9">
-        <v>9</v>
-      </c>
-      <c r="F9">
-        <v>10</v>
-      </c>
-      <c r="G9">
-        <v>10</v>
-      </c>
-      <c r="H9">
-        <v>10</v>
-      </c>
-      <c r="I9">
-        <v>5</v>
-      </c>
-      <c r="J9">
-        <v>5</v>
-      </c>
-      <c r="K9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10">
-        <v>9</v>
-      </c>
-      <c r="F10">
-        <v>8</v>
-      </c>
-      <c r="G10">
-        <v>7</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>5</v>
-      </c>
-      <c r="J10">
-        <v>7</v>
-      </c>
-      <c r="K10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="57" x14ac:dyDescent="0.45">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="2">
-        <v>4.3</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11">
-        <v>9</v>
-      </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-      <c r="G11">
-        <v>10</v>
-      </c>
       <c r="H11">
         <v>5</v>
       </c>
@@ -1093,365 +1056,50 @@
         <v>5</v>
       </c>
       <c r="J11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="57" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C12" s="2">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G12">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I12">
         <v>5</v>
       </c>
       <c r="J12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="57" x14ac:dyDescent="0.45">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13">
-        <v>9</v>
-      </c>
-      <c r="F13">
-        <v>10</v>
-      </c>
-      <c r="G13">
-        <v>10</v>
-      </c>
-      <c r="H13">
-        <v>5</v>
-      </c>
-      <c r="I13">
-        <v>5</v>
-      </c>
-      <c r="J13">
-        <v>8</v>
-      </c>
-      <c r="K13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="57" x14ac:dyDescent="0.45">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="2">
-        <v>4</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14">
-        <v>9</v>
-      </c>
-      <c r="F14">
-        <v>10</v>
-      </c>
-      <c r="G14">
-        <v>10</v>
-      </c>
-      <c r="H14">
-        <v>5</v>
-      </c>
-      <c r="I14">
-        <v>5</v>
-      </c>
-      <c r="J14">
-        <v>8</v>
-      </c>
-      <c r="K14">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="57" x14ac:dyDescent="0.45">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="2">
-        <v>3.7</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15">
-        <v>9</v>
-      </c>
-      <c r="F15">
-        <v>8</v>
-      </c>
-      <c r="G15">
-        <v>7</v>
-      </c>
-      <c r="H15">
-        <v>7</v>
-      </c>
-      <c r="I15">
         <v>3</v>
-      </c>
-      <c r="J15">
-        <v>5</v>
-      </c>
-      <c r="K15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="57" x14ac:dyDescent="0.45">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="2">
-        <v>4</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16">
-        <v>9</v>
-      </c>
-      <c r="F16">
-        <v>5</v>
-      </c>
-      <c r="G16">
-        <v>7</v>
-      </c>
-      <c r="H16">
-        <v>7</v>
-      </c>
-      <c r="I16">
-        <v>5</v>
-      </c>
-      <c r="J16">
-        <v>5</v>
-      </c>
-      <c r="K16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="57" x14ac:dyDescent="0.45">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17">
-        <v>9</v>
-      </c>
-      <c r="F17">
-        <v>5</v>
-      </c>
-      <c r="G17">
-        <v>8</v>
-      </c>
-      <c r="H17">
-        <v>5</v>
-      </c>
-      <c r="I17">
-        <v>5</v>
-      </c>
-      <c r="J17">
-        <v>7</v>
-      </c>
-      <c r="K17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="57" x14ac:dyDescent="0.45">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="2">
-        <v>3.8</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18">
-        <v>9</v>
-      </c>
-      <c r="F18">
-        <v>8</v>
-      </c>
-      <c r="G18">
-        <v>8</v>
-      </c>
-      <c r="H18">
-        <v>8</v>
-      </c>
-      <c r="I18">
-        <v>5</v>
-      </c>
-      <c r="J18">
-        <v>6</v>
-      </c>
-      <c r="K18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="57" x14ac:dyDescent="0.45">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19">
-        <v>9</v>
-      </c>
-      <c r="F19">
-        <v>9</v>
-      </c>
-      <c r="G19">
-        <v>8</v>
-      </c>
-      <c r="H19">
-        <v>8</v>
-      </c>
-      <c r="I19">
-        <v>5</v>
-      </c>
-      <c r="J19">
-        <v>6</v>
-      </c>
-      <c r="K19">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="57" x14ac:dyDescent="0.45">
-      <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="2">
-        <v>4</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20">
-        <v>9</v>
-      </c>
-      <c r="F20">
-        <v>8</v>
-      </c>
-      <c r="G20">
-        <v>7</v>
-      </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
-      <c r="I20">
-        <v>5</v>
-      </c>
-      <c r="J20">
-        <v>7</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="57" x14ac:dyDescent="0.45">
-      <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="2">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21">
-        <v>8</v>
-      </c>
-      <c r="F21">
-        <v>7</v>
-      </c>
-      <c r="G21">
-        <v>6</v>
-      </c>
-      <c r="H21">
-        <v>5</v>
-      </c>
-      <c r="I21">
-        <v>3</v>
-      </c>
-      <c r="J21">
-        <v>5</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" display="https://supasoya.com/singapore/guides/chinatown-complex-food-centre-best-hawker/" xr:uid="{0B1D1A7F-BD74-4535-A145-7BA3DF0525B1}"/>
+    <hyperlink ref="B4" r:id="rId1" display="https://supasoya.com/singapore/guides/chinatown-complex-food-centre-best-hawker/" xr:uid="{0B1D1A7F-BD74-4535-A145-7BA3DF0525B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1465,16 +1113,16 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="26.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.59765625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="33.1328125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="33.1640625" customWidth="1"/>
     <col min="6" max="7" width="30" style="8" customWidth="1"/>
-    <col min="8" max="8" width="95.3984375" customWidth="1"/>
-    <col min="9" max="9" width="48.73046875" customWidth="1"/>
+    <col min="8" max="8" width="95.33203125" customWidth="1"/>
+    <col min="9" max="9" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1524,7 +1172,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="165" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1574,7 +1222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="162.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" ht="162.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1624,7 +1272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1674,7 +1322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" ht="80" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1724,7 +1372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1774,7 +1422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1824,7 +1472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1874,7 +1522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1924,7 +1572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1974,7 +1622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -2024,7 +1672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -2074,7 +1722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -2124,7 +1772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="J14">
         <v>1</v>
       </c>
@@ -2147,7 +1795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="J15">
         <v>1</v>
       </c>
@@ -2170,7 +1818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="J16">
         <v>6</v>
       </c>
@@ -2193,7 +1841,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="10:16" x14ac:dyDescent="0.45">
+    <row r="17" spans="10:16" x14ac:dyDescent="0.2">
       <c r="J17">
         <v>7</v>
       </c>
@@ -2234,6 +1882,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="1fddc438-ced6-4b36-afd2-445ee7f61e3e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2c799cec-ff75-42a0-91ee-ba45eec27ddc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A8E2ABB7CF629C43B3C2D6687A3181E4" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f890524db268e0668f34b7eaee651358">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2c799cec-ff75-42a0-91ee-ba45eec27ddc" xmlns:ns3="1fddc438-ced6-4b36-afd2-445ee7f61e3e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="43d77a6365b68f3415b4216e90e03aba" ns2:_="" ns3:_="">
     <xsd:import namespace="2c799cec-ff75-42a0-91ee-ba45eec27ddc"/>
@@ -2428,17 +2087,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="1fddc438-ced6-4b36-afd2-445ee7f61e3e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2c799cec-ff75-42a0-91ee-ba45eec27ddc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C211C6F-AA12-47D7-9F0E-F2D71716B15F}">
   <ds:schemaRefs>
@@ -2448,6 +2096,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE480AA1-519B-40D9-A2BA-B47EF6F08F84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="1fddc438-ced6-4b36-afd2-445ee7f61e3e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2c799cec-ff75-42a0-91ee-ba45eec27ddc"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02F14C8A-E109-4F02-BEB1-56825CCED3F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2466,23 +2131,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE480AA1-519B-40D9-A2BA-B47EF6F08F84}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1fddc438-ced6-4b36-afd2-445ee7f61e3e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2c799cec-ff75-42a0-91ee-ba45eec27ddc"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{c98a79ca-5a9a-4791-a243-f06afd67464d}" enabled="0" method="" siteId="{c98a79ca-5a9a-4791-a243-f06afd67464d}" removed="1"/>
